--- a/Excel_pueba.xlsx
+++ b/Excel_pueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,32 +355,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
